--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_14_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_14_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>772764.2411451004</v>
+        <v>769003.5038034893</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5973276.738376969</v>
+        <v>5973276.738376967</v>
       </c>
     </row>
     <row r="9">
@@ -727,7 +727,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>4.203262463343126</v>
       </c>
     </row>
     <row r="3">
@@ -740,19 +740,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36.39025468426208</v>
+      </c>
+      <c r="G3" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>41.31500304752735</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>36.39025468426208</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>41.31500304752735</v>
       </c>
       <c r="U4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
     </row>
     <row r="5">
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>0.8069000430770259</v>
       </c>
       <c r="X5" t="n">
-        <v>14.95103878648243</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -980,13 +980,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="E6" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>41.31500304752735</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="D7" t="n">
         <v>41.31500304752735</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="I7" t="n">
         <v>41.31500304752735</v>
@@ -1104,10 +1104,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>15.18661160258025</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1211,65 +1211,65 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>36.39025468426208</v>
+      </c>
+      <c r="T9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="D9" t="n">
+      <c r="U9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="W10" t="n">
-        <v>15.18661160258025</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>289.0012590013207</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>339.7086119642315</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>87.71416123637758</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>30.80498927785586</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
         <v>131.0206200144773</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
@@ -1590,10 +1590,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>50.44811495695971</v>
+        <v>335.5345331389651</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1785,7 +1785,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>23.00363867450024</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>103.2603355135027</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>116.5643586548532</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>102.3733823439589</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.4799845637012</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>160.4177017065592</v>
       </c>
       <c r="U19" t="n">
         <v>275.6027656317444</v>
@@ -2067,10 +2067,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>225.5824923662805</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2089,13 +2089,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>98.09616921632582</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>86.11555401654087</v>
       </c>
     </row>
     <row r="21">
@@ -2244,7 +2244,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>84.81216272142436</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>66.88831200308265</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>386.4973746337309</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
@@ -2332,10 +2332,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>199.3626971236014</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.4799845637012</v>
@@ -2380,7 +2380,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>423.7651884923437</v>
+        <v>286.5458310549847</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>154.2355091437939</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>325.2378807770013</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
@@ -2851,13 +2851,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -3031,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>122.7436762789001</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>122.8694011124686</v>
       </c>
     </row>
     <row r="33">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.227766243507535</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>102.9957034410601</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3432,19 +3432,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3489,10 +3489,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>200.4551524860699</v>
       </c>
       <c r="Y37" t="n">
-        <v>161.6049459103314</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3514,10 +3514,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>270.9056058010442</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>348.8262241447918</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>185.8124461034497</v>
       </c>
       <c r="U40" t="n">
-        <v>79.4417450421068</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>82.85656881622987</v>
       </c>
       <c r="D41" t="n">
-        <v>14.20073879372601</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>108.2297720099066</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
@@ -3960,10 +3960,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>137.6384805602085</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>367.4349079106944</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>275.1106372348596</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>45.09156743541426</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4155,7 +4155,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>73.4609303272113</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4309,13 +4309,13 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C2" t="n">
-        <v>88.7359473806426</v>
+        <v>88.73594738064259</v>
       </c>
       <c r="D2" t="n">
-        <v>56.86656659549119</v>
+        <v>56.86656659549116</v>
       </c>
       <c r="E2" t="n">
-        <v>27.13222579419042</v>
+        <v>27.13222579419039</v>
       </c>
       <c r="F2" t="n">
         <v>3.305200243802188</v>
@@ -4339,19 +4339,19 @@
         <v>3.305200243802188</v>
       </c>
       <c r="M2" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="N2" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="O2" t="n">
-        <v>42.55445313895319</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="P2" t="n">
-        <v>83.45630615600527</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="Q2" t="n">
-        <v>124.3581591730573</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="R2" t="n">
         <v>165.2600121901094</v>
@@ -4369,7 +4369,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W2" t="n">
-        <v>164.4449616415467</v>
+        <v>164.4449616415468</v>
       </c>
       <c r="X2" t="n">
         <v>149.3429022612615</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>123.5276858794757</v>
+      </c>
+      <c r="C3" t="n">
+        <v>123.5276858794757</v>
+      </c>
+      <c r="D3" t="n">
+        <v>123.5276858794757</v>
+      </c>
+      <c r="E3" t="n">
+        <v>123.5276858794757</v>
+      </c>
+      <c r="F3" t="n">
         <v>86.76985286506957</v>
-      </c>
-      <c r="C3" t="n">
-        <v>45.03752655443588</v>
-      </c>
-      <c r="D3" t="n">
-        <v>45.03752655443588</v>
-      </c>
-      <c r="E3" t="n">
-        <v>45.03752655443588</v>
-      </c>
-      <c r="F3" t="n">
-        <v>45.03752655443588</v>
       </c>
       <c r="G3" t="n">
         <v>45.03752655443588</v>
@@ -4406,55 +4406,55 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I3" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J3" t="n">
-        <v>3.305200243802188</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="K3" t="n">
-        <v>3.305200243802188</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="L3" t="n">
-        <v>42.55445313895319</v>
+        <v>152.074432455416</v>
       </c>
       <c r="M3" t="n">
-        <v>42.55445313895319</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="N3" t="n">
-        <v>42.55445313895319</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="O3" t="n">
-        <v>42.55445313895319</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="P3" t="n">
-        <v>83.45630615600527</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q3" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R3" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="S3" t="n">
-        <v>128.5021791757032</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T3" t="n">
-        <v>128.5021791757032</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="U3" t="n">
-        <v>128.5021791757032</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V3" t="n">
-        <v>128.5021791757032</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="W3" t="n">
-        <v>128.5021791757032</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="X3" t="n">
-        <v>128.5021791757032</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="Y3" t="n">
-        <v>86.76985286506957</v>
+        <v>123.5276858794757</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C4" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D4" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E4" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F4" t="n">
         <v>3.305200243802188</v>
@@ -4488,52 +4488,52 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J4" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K4" t="n">
-        <v>85.10890627790634</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L4" t="n">
-        <v>85.10890627790634</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="M4" t="n">
-        <v>85.10890627790634</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="N4" t="n">
-        <v>85.10890627790634</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O4" t="n">
+        <v>83.45630615600527</v>
+      </c>
+      <c r="P4" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="P4" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="Q4" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="S4" t="n">
-        <v>165.2600121901094</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T4" t="n">
-        <v>123.5276858794757</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="U4" t="n">
-        <v>81.79535956884203</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="V4" t="n">
-        <v>81.79535956884203</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="W4" t="n">
-        <v>40.06303325820834</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="X4" t="n">
-        <v>3.305200243802188</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="5">
@@ -4567,25 +4567,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J5" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K5" t="n">
-        <v>85.10890627790634</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L5" t="n">
-        <v>85.10890627790634</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="M5" t="n">
-        <v>85.10890627790634</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="N5" t="n">
-        <v>85.10890627790634</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="O5" t="n">
-        <v>85.10890627790634</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P5" t="n">
-        <v>124.3581591730573</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q5" t="n">
         <v>124.3581591730573</v>
@@ -4606,7 +4606,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W5" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X5" t="n">
         <v>149.3429022612615</v>
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="C6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="D6" t="n">
         <v>123.5276858794757</v>
       </c>
       <c r="E6" t="n">
-        <v>81.79535956884203</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="F6" t="n">
         <v>81.79535956884203</v>
@@ -4643,28 +4643,28 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I6" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J6" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="K6" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="L6" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="M6" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="N6" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="O6" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P6" t="n">
-        <v>85.10890627790634</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q6" t="n">
         <v>124.3581591730573</v>
@@ -4673,25 +4673,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="U6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="W6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="X6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="Y6" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>143.8421908954813</v>
+      </c>
+      <c r="C7" t="n">
+        <v>128.5021791757032</v>
+      </c>
+      <c r="D7" t="n">
         <v>86.76985286506957</v>
       </c>
-      <c r="C7" t="n">
+      <c r="E7" t="n">
         <v>86.76985286506957</v>
       </c>
-      <c r="D7" t="n">
-        <v>45.03752655443588</v>
-      </c>
-      <c r="E7" t="n">
-        <v>45.03752655443588</v>
-      </c>
       <c r="F7" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="G7" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="H7" t="n">
         <v>45.03752655443588</v>
@@ -4728,22 +4728,22 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K7" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L7" t="n">
-        <v>44.20705326085427</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="M7" t="n">
-        <v>83.45630615600527</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="N7" t="n">
-        <v>83.45630615600527</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="O7" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="P7" t="n">
-        <v>124.3581591730573</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Q7" t="n">
         <v>165.2600121901094</v>
@@ -4752,25 +4752,25 @@
         <v>143.8421908954813</v>
       </c>
       <c r="S7" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T7" t="n">
-        <v>86.76985286506957</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U7" t="n">
-        <v>86.76985286506957</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="V7" t="n">
-        <v>86.76985286506957</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="W7" t="n">
-        <v>86.76985286506957</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="X7" t="n">
-        <v>86.76985286506957</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="Y7" t="n">
-        <v>86.76985286506957</v>
+        <v>143.8421908954813</v>
       </c>
     </row>
     <row r="8">
@@ -4792,10 +4792,10 @@
         <v>27.13222579419039</v>
       </c>
       <c r="F8" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802176</v>
       </c>
       <c r="G8" t="n">
-        <v>3.305200243802188</v>
+        <v>3.305200243802176</v>
       </c>
       <c r="H8" t="n">
         <v>3.305200243802188</v>
@@ -4804,13 +4804,13 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J8" t="n">
-        <v>3.305200243802188</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="K8" t="n">
-        <v>3.305200243802188</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="L8" t="n">
-        <v>3.305200243802188</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="M8" t="n">
         <v>42.55445313895319</v>
@@ -4819,7 +4819,7 @@
         <v>42.55445313895319</v>
       </c>
       <c r="O8" t="n">
-        <v>42.55445313895319</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P8" t="n">
         <v>83.45630615600527</v>
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C9" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D9" t="n">
         <v>3.305200243802188</v>
@@ -4892,43 +4892,43 @@
         <v>3.305200243802188</v>
       </c>
       <c r="M9" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="N9" t="n">
-        <v>85.10890627790634</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="O9" t="n">
-        <v>126.0107592949584</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P9" t="n">
-        <v>165.2600121901094</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q9" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R9" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>123.5276858794757</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="T9" t="n">
-        <v>123.5276858794757</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="U9" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="V9" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="W9" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="X9" t="n">
-        <v>123.5276858794757</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="Y9" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I10" t="n">
         <v>3.305200243802188</v>
@@ -4965,19 +4965,19 @@
         <v>3.305200243802188</v>
       </c>
       <c r="K10" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L10" t="n">
-        <v>3.305200243802188</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="M10" t="n">
-        <v>3.305200243802188</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="N10" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="O10" t="n">
-        <v>83.45630615600527</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="P10" t="n">
         <v>124.3581591730573</v>
@@ -4989,25 +4989,25 @@
         <v>143.8421908954813</v>
       </c>
       <c r="S10" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="T10" t="n">
-        <v>102.1098645848476</v>
+        <v>143.8421908954813</v>
       </c>
       <c r="U10" t="n">
         <v>102.1098645848476</v>
       </c>
       <c r="V10" t="n">
-        <v>102.1098645848476</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="W10" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="X10" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y10" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>339.1270151866524</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="C11" t="n">
-        <v>339.1270151866524</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D11" t="n">
-        <v>47.20655154895473</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E11" t="n">
         <v>47.20655154895473</v>
@@ -5038,25 +5038,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
         <v>2043.069798152528</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.710627381563</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W11" t="n">
-        <v>1592.855172792596</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="X11" t="n">
-        <v>1173.712709371907</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="Y11" t="n">
-        <v>765.4265856715602</v>
+        <v>1355.033554032792</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>762.8256627965031</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>730.8830127630994</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>765.0997489345755</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
-        <v>858.9930882810426</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N12" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P12" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q12" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R12" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S12" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T12" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U12" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V12" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W12" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X12" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y12" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>616.0817647851416</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C13" t="n">
-        <v>443.5200532683665</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D13" t="n">
-        <v>412.4039024826535</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E13" t="n">
-        <v>242.6458987333908</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F13" t="n">
-        <v>242.6458987333908</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G13" t="n">
         <v>242.6458987333908</v>
@@ -5199,19 +5199,19 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K13" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L13" t="n">
-        <v>1106.33113894078</v>
+        <v>862.082053811994</v>
       </c>
       <c r="M13" t="n">
-        <v>1236.93553127931</v>
+        <v>992.6864461505235</v>
       </c>
       <c r="N13" t="n">
-        <v>1364.434443083199</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O13" t="n">
         <v>1657.620488527956</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W13" t="n">
-        <v>1280.711808856608</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="X13" t="n">
-        <v>1035.320054190021</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="Y13" t="n">
-        <v>807.9003835041287</v>
+        <v>1180.892004088659</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>961.9414578410193</v>
+        <v>1255.814852063655</v>
       </c>
       <c r="C14" t="n">
-        <v>961.9414578410193</v>
+        <v>1255.814852063655</v>
       </c>
       <c r="D14" t="n">
-        <v>526.0316730154639</v>
+        <v>819.905067238099</v>
       </c>
       <c r="E14" t="n">
-        <v>526.0316730154639</v>
+        <v>386.1303223963942</v>
       </c>
       <c r="F14" t="n">
-        <v>98.16424342467161</v>
+        <v>386.1303223963942</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L14" t="n">
-        <v>805.440802286702</v>
+        <v>805.440802286703</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431968</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q14" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R14" t="n">
         <v>2360.327577447737</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2148.556325916849</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U14" t="n">
-        <v>2148.556325916849</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V14" t="n">
-        <v>1785.939375850675</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="W14" t="n">
-        <v>1381.083921261709</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="X14" t="n">
-        <v>961.9414578410193</v>
+        <v>1682.114422548562</v>
       </c>
       <c r="Y14" t="n">
-        <v>961.9414578410193</v>
+        <v>1682.114422548562</v>
       </c>
     </row>
     <row r="15">
@@ -5339,22 +5339,22 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E15" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235849</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1029.196554659879</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C16" t="n">
-        <v>856.6348431431041</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D16" t="n">
-        <v>690.7568503446269</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E16" t="n">
-        <v>520.9988465953642</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F16" t="n">
-        <v>344.2917925571204</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G16" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J16" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>202.912315818696</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L16" t="n">
-        <v>326.783117436994</v>
+        <v>481.9462364092382</v>
       </c>
       <c r="M16" t="n">
-        <v>910.9641928553087</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N16" t="n">
-        <v>1480.721907816843</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.320157362631</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q16" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R16" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447737</v>
+        <v>2337.091578786626</v>
       </c>
       <c r="T16" t="n">
-        <v>2118.080353351143</v>
+        <v>2094.844354690033</v>
       </c>
       <c r="U16" t="n">
-        <v>1839.693721399886</v>
+        <v>1816.457722738776</v>
       </c>
       <c r="V16" t="n">
-        <v>1552.738213270316</v>
+        <v>1529.502214609206</v>
       </c>
       <c r="W16" t="n">
-        <v>1552.738213270316</v>
+        <v>1529.502214609206</v>
       </c>
       <c r="X16" t="n">
-        <v>1448.434844064758</v>
+        <v>1284.110459942618</v>
       </c>
       <c r="Y16" t="n">
-        <v>1221.015173378866</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1589.079040704295</v>
+        <v>1732.952867402587</v>
       </c>
       <c r="C17" t="n">
-        <v>1150.936567887718</v>
+        <v>1615.211090983543</v>
       </c>
       <c r="D17" t="n">
-        <v>1150.936567887718</v>
+        <v>1179.301306157987</v>
       </c>
       <c r="E17" t="n">
-        <v>717.1618230460133</v>
+        <v>745.5265613162826</v>
       </c>
       <c r="F17" t="n">
-        <v>717.1618230460133</v>
+        <v>317.6591317254903</v>
       </c>
       <c r="G17" t="n">
-        <v>317.6591317254904</v>
+        <v>317.6591317254903</v>
       </c>
       <c r="H17" t="n">
-        <v>47.9375802694008</v>
+        <v>47.93758026940079</v>
       </c>
       <c r="I17" t="n">
         <v>119.1375305205814</v>
@@ -5518,49 +5518,49 @@
         <v>276.7843057640267</v>
       </c>
       <c r="K17" t="n">
-        <v>548.8763634451052</v>
+        <v>513.0559561432476</v>
       </c>
       <c r="L17" t="n">
-        <v>841.9922383090059</v>
+        <v>806.1718310071483</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.140126477793</v>
+        <v>1132.319719175935</v>
       </c>
       <c r="N17" t="n">
-        <v>1499.56542845427</v>
+        <v>1463.745021152413</v>
       </c>
       <c r="O17" t="n">
-        <v>1812.520942995563</v>
+        <v>1776.700535693706</v>
       </c>
       <c r="P17" t="n">
-        <v>2079.621234174832</v>
+        <v>2043.800826872975</v>
       </c>
       <c r="Q17" t="n">
-        <v>2280.2024291859</v>
+        <v>2244.382021884042</v>
       </c>
       <c r="R17" t="n">
-        <v>2396.87901347004</v>
+        <v>2396.879013470039</v>
       </c>
       <c r="S17" t="n">
-        <v>2356.412643684837</v>
+        <v>2396.879013470039</v>
       </c>
       <c r="T17" t="n">
-        <v>2253.005186771748</v>
+        <v>2396.879013470039</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.934495293262</v>
+        <v>2137.808321991553</v>
       </c>
       <c r="V17" t="n">
-        <v>1993.934495293262</v>
+        <v>2137.808321991553</v>
       </c>
       <c r="W17" t="n">
-        <v>1589.079040704295</v>
+        <v>1732.952867402587</v>
       </c>
       <c r="X17" t="n">
-        <v>1589.079040704295</v>
+        <v>1732.952867402587</v>
       </c>
       <c r="Y17" t="n">
-        <v>1589.079040704295</v>
+        <v>1732.952867402587</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>543.3023337868368</v>
+        <v>543.3023337868369</v>
       </c>
       <c r="C18" t="n">
-        <v>436.8458726234791</v>
+        <v>436.8458726234792</v>
       </c>
       <c r="D18" t="n">
         <v>341.7555837700324</v>
@@ -5582,16 +5582,16 @@
         <v>247.6351690969861</v>
       </c>
       <c r="F18" t="n">
-        <v>164.2513307131477</v>
+        <v>164.2513307131478</v>
       </c>
       <c r="G18" t="n">
-        <v>79.88023030280456</v>
+        <v>79.88023030280455</v>
       </c>
       <c r="H18" t="n">
-        <v>47.9375802694008</v>
+        <v>47.93758026940079</v>
       </c>
       <c r="I18" t="n">
-        <v>82.15431644087693</v>
+        <v>82.1543164408771</v>
       </c>
       <c r="J18" t="n">
         <v>176.0476557873441</v>
@@ -5600,10 +5600,10 @@
         <v>336.5263278415143</v>
       </c>
       <c r="L18" t="n">
-        <v>552.3097067165367</v>
+        <v>552.3097067165365</v>
       </c>
       <c r="M18" t="n">
-        <v>804.1187320192341</v>
+        <v>804.118732019234</v>
       </c>
       <c r="N18" t="n">
         <v>1062.592392940554</v>
@@ -5633,13 +5633,13 @@
         <v>1131.282204115305</v>
       </c>
       <c r="W18" t="n">
-        <v>945.9594498484992</v>
+        <v>945.9594498484994</v>
       </c>
       <c r="X18" t="n">
-        <v>791.0920140873792</v>
+        <v>791.0920140873793</v>
       </c>
       <c r="Y18" t="n">
-        <v>664.6062348665999</v>
+        <v>664.6062348666001</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>897.5835227596413</v>
+        <v>732.8423423721597</v>
       </c>
       <c r="C19" t="n">
-        <v>725.0218112428662</v>
+        <v>560.2806308553846</v>
       </c>
       <c r="D19" t="n">
-        <v>559.1438184443889</v>
+        <v>394.4026380569073</v>
       </c>
       <c r="E19" t="n">
-        <v>389.3858146951262</v>
+        <v>224.6446343076446</v>
       </c>
       <c r="F19" t="n">
-        <v>212.6787606568824</v>
+        <v>47.93758026940079</v>
       </c>
       <c r="G19" t="n">
-        <v>47.9375802694008</v>
+        <v>47.93758026940079</v>
       </c>
       <c r="H19" t="n">
-        <v>47.9375802694008</v>
+        <v>47.93758026940079</v>
       </c>
       <c r="I19" t="n">
-        <v>47.9375802694008</v>
+        <v>47.93758026940079</v>
       </c>
       <c r="J19" t="n">
         <v>106.8432439715839</v>
@@ -5679,46 +5679,46 @@
         <v>203.6433445391421</v>
       </c>
       <c r="L19" t="n">
-        <v>745.7240279254011</v>
+        <v>327.5141461574401</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.812287444844</v>
+        <v>755.1718538795136</v>
       </c>
       <c r="N19" t="n">
-        <v>1672.43646281139</v>
+        <v>1324.929568841048</v>
       </c>
       <c r="O19" t="n">
-        <v>2209.871593384933</v>
+        <v>1862.364699414591</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.640649562617</v>
+        <v>2310.640649562616</v>
       </c>
       <c r="Q19" t="n">
-        <v>2380.407920793273</v>
+        <v>2380.407920793272</v>
       </c>
       <c r="R19" t="n">
-        <v>2396.87901347004</v>
+        <v>2396.879013470039</v>
       </c>
       <c r="S19" t="n">
-        <v>2396.87901347004</v>
+        <v>2396.879013470039</v>
       </c>
       <c r="T19" t="n">
-        <v>2154.631789373447</v>
+        <v>2234.840930938161</v>
       </c>
       <c r="U19" t="n">
-        <v>1876.24515742219</v>
+        <v>1956.454298986904</v>
       </c>
       <c r="V19" t="n">
-        <v>1589.28964929262</v>
+        <v>1669.498790857335</v>
       </c>
       <c r="W19" t="n">
-        <v>1317.263244878912</v>
+        <v>1397.472386443626</v>
       </c>
       <c r="X19" t="n">
-        <v>1089.402141478628</v>
+        <v>1152.080631777039</v>
       </c>
       <c r="Y19" t="n">
-        <v>1089.402141478628</v>
+        <v>924.6609610911469</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1718.665858570865</v>
+        <v>1591.214080688145</v>
       </c>
       <c r="C20" t="n">
-        <v>1280.523385754288</v>
+        <v>1153.071607871569</v>
       </c>
       <c r="D20" t="n">
-        <v>844.6136009287329</v>
+        <v>717.1618230460132</v>
       </c>
       <c r="E20" t="n">
-        <v>745.5265613162826</v>
+        <v>717.1618230460132</v>
       </c>
       <c r="F20" t="n">
-        <v>317.6591317254904</v>
+        <v>717.1618230460132</v>
       </c>
       <c r="G20" t="n">
-        <v>317.6591317254904</v>
+        <v>317.6591317254903</v>
       </c>
       <c r="H20" t="n">
-        <v>47.9375802694008</v>
+        <v>47.93758026940079</v>
       </c>
       <c r="I20" t="n">
         <v>119.1375305205814</v>
       </c>
       <c r="J20" t="n">
-        <v>276.7843057640267</v>
+        <v>312.6047130658829</v>
       </c>
       <c r="K20" t="n">
-        <v>513.0559561432476</v>
+        <v>548.8763634451038</v>
       </c>
       <c r="L20" t="n">
-        <v>806.1718310071483</v>
+        <v>841.9922383090045</v>
       </c>
       <c r="M20" t="n">
-        <v>1132.319719175935</v>
+        <v>1168.140126477792</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.745021152413</v>
+        <v>1499.565428454269</v>
       </c>
       <c r="O20" t="n">
-        <v>1776.700535693706</v>
+        <v>1812.520942995562</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.800826872975</v>
+        <v>2079.621234174831</v>
       </c>
       <c r="Q20" t="n">
-        <v>2244.382021884042</v>
+        <v>2280.202429185899</v>
       </c>
       <c r="R20" t="n">
-        <v>2396.87901347004</v>
+        <v>2396.879013470039</v>
       </c>
       <c r="S20" t="n">
-        <v>2396.87901347004</v>
+        <v>2356.412643684836</v>
       </c>
       <c r="T20" t="n">
-        <v>2396.87901347004</v>
+        <v>2356.412643684836</v>
       </c>
       <c r="U20" t="n">
-        <v>2137.808321991554</v>
+        <v>2097.34195220635</v>
       </c>
       <c r="V20" t="n">
-        <v>2137.808321991554</v>
+        <v>2097.34195220635</v>
       </c>
       <c r="W20" t="n">
-        <v>2137.808321991554</v>
+        <v>2097.34195220635</v>
       </c>
       <c r="X20" t="n">
-        <v>1718.665858570865</v>
+        <v>1678.199488785661</v>
       </c>
       <c r="Y20" t="n">
-        <v>1718.665858570865</v>
+        <v>1591.214080688145</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1262.799202302839</v>
+        <v>543.3023337868368</v>
       </c>
       <c r="C21" t="n">
-        <v>1156.342741139482</v>
+        <v>436.8458726234791</v>
       </c>
       <c r="D21" t="n">
-        <v>1061.252452286035</v>
+        <v>341.7555837700324</v>
       </c>
       <c r="E21" t="n">
-        <v>967.1320376129886</v>
+        <v>247.6351690969861</v>
       </c>
       <c r="F21" t="n">
-        <v>883.7481992291503</v>
+        <v>164.2513307131477</v>
       </c>
       <c r="G21" t="n">
-        <v>799.3770988188071</v>
+        <v>79.88023030280453</v>
       </c>
       <c r="H21" t="n">
-        <v>767.4344487854033</v>
+        <v>47.93758026940079</v>
       </c>
       <c r="I21" t="n">
-        <v>801.6511849568794</v>
+        <v>82.15431644087691</v>
       </c>
       <c r="J21" t="n">
-        <v>895.5445243033465</v>
+        <v>176.047655787344</v>
       </c>
       <c r="K21" t="n">
-        <v>1056.023196357517</v>
+        <v>336.5263278415143</v>
       </c>
       <c r="L21" t="n">
-        <v>1271.806575232539</v>
+        <v>552.3097067165365</v>
       </c>
       <c r="M21" t="n">
-        <v>1523.615600535236</v>
+        <v>804.118732019234</v>
       </c>
       <c r="N21" t="n">
-        <v>1782.089261456556</v>
+        <v>1062.592392940554</v>
       </c>
       <c r="O21" t="n">
-        <v>2018.542164271087</v>
+        <v>1299.045295755085</v>
       </c>
       <c r="P21" t="n">
-        <v>2208.316464835893</v>
+        <v>1488.81959631989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2335.175559044127</v>
+        <v>1615.678690528125</v>
       </c>
       <c r="R21" t="n">
-        <v>2396.87901347004</v>
+        <v>1677.382144954038</v>
       </c>
       <c r="S21" t="n">
-        <v>2352.257982869774</v>
+        <v>1632.761114353772</v>
       </c>
       <c r="T21" t="n">
-        <v>2226.166427745427</v>
+        <v>1506.669559229425</v>
       </c>
       <c r="U21" t="n">
-        <v>2049.896590569309</v>
+        <v>1330.399722053306</v>
       </c>
       <c r="V21" t="n">
-        <v>1850.779072631308</v>
+        <v>1131.282204115305</v>
       </c>
       <c r="W21" t="n">
-        <v>1665.456318364502</v>
+        <v>945.9594498484992</v>
       </c>
       <c r="X21" t="n">
-        <v>1510.588882603382</v>
+        <v>791.0920140873792</v>
       </c>
       <c r="Y21" t="n">
-        <v>1384.103103382603</v>
+        <v>664.6062348665999</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>995.8456410748611</v>
+        <v>652.6332008074444</v>
       </c>
       <c r="C22" t="n">
-        <v>823.283929558086</v>
+        <v>480.0714892906693</v>
       </c>
       <c r="D22" t="n">
-        <v>657.4059367596087</v>
+        <v>394.4026380569073</v>
       </c>
       <c r="E22" t="n">
-        <v>487.647933010346</v>
+        <v>224.6446343076446</v>
       </c>
       <c r="F22" t="n">
-        <v>310.9408789721022</v>
+        <v>47.93758026940079</v>
       </c>
       <c r="G22" t="n">
-        <v>243.3769274538369</v>
+        <v>47.93758026940079</v>
       </c>
       <c r="H22" t="n">
-        <v>111.0328668331528</v>
+        <v>47.93758026940079</v>
       </c>
       <c r="I22" t="n">
-        <v>47.9375802694008</v>
+        <v>47.93758026940079</v>
       </c>
       <c r="J22" t="n">
         <v>106.8432439715839</v>
@@ -5916,46 +5916,46 @@
         <v>478.4017991102777</v>
       </c>
       <c r="L22" t="n">
-        <v>1020.482482496537</v>
+        <v>898.6334898342969</v>
       </c>
       <c r="M22" t="n">
-        <v>1610.570742015979</v>
+        <v>1029.237882172826</v>
       </c>
       <c r="N22" t="n">
-        <v>1738.069653819869</v>
+        <v>1156.736793976716</v>
       </c>
       <c r="O22" t="n">
-        <v>1862.364699414592</v>
+        <v>1694.171924550259</v>
       </c>
       <c r="P22" t="n">
-        <v>2310.640649562617</v>
+        <v>2142.447874698284</v>
       </c>
       <c r="Q22" t="n">
-        <v>2380.407920793273</v>
+        <v>2380.407920793272</v>
       </c>
       <c r="R22" t="n">
-        <v>2396.87901347004</v>
+        <v>2396.879013470039</v>
       </c>
       <c r="S22" t="n">
-        <v>2252.452474974275</v>
+        <v>2396.879013470039</v>
       </c>
       <c r="T22" t="n">
-        <v>2252.452474974275</v>
+        <v>2154.631789373446</v>
       </c>
       <c r="U22" t="n">
-        <v>1974.065843023018</v>
+        <v>1876.245157422189</v>
       </c>
       <c r="V22" t="n">
-        <v>1687.110334893448</v>
+        <v>1589.289649292619</v>
       </c>
       <c r="W22" t="n">
-        <v>1415.08393047974</v>
+        <v>1317.263244878911</v>
       </c>
       <c r="X22" t="n">
-        <v>1415.08393047974</v>
+        <v>1071.871490212323</v>
       </c>
       <c r="Y22" t="n">
-        <v>1187.664259793848</v>
+        <v>844.4518195264316</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1711.4188591869</v>
+        <v>1558.801025914024</v>
       </c>
       <c r="C23" t="n">
-        <v>1321.01747066798</v>
+        <v>1558.801025914024</v>
       </c>
       <c r="D23" t="n">
-        <v>1321.01747066798</v>
+        <v>1122.891241088469</v>
       </c>
       <c r="E23" t="n">
-        <v>887.2427258262751</v>
+        <v>689.1164962467637</v>
       </c>
       <c r="F23" t="n">
-        <v>459.3752962354828</v>
+        <v>261.2490666559715</v>
       </c>
       <c r="G23" t="n">
-        <v>59.87260491495994</v>
+        <v>261.2490666559715</v>
       </c>
       <c r="H23" t="n">
         <v>59.87260491495994</v>
@@ -6001,40 +6001,40 @@
         <v>1559.030341475336</v>
       </c>
       <c r="N23" t="n">
-        <v>1927.16259597917</v>
+        <v>2096.316660732227</v>
       </c>
       <c r="O23" t="n">
-        <v>2240.118110520463</v>
+        <v>2409.27217527352</v>
       </c>
       <c r="P23" t="n">
-        <v>2507.218401699732</v>
+        <v>2676.372466452789</v>
       </c>
       <c r="Q23" t="n">
-        <v>2707.7995967108</v>
+        <v>2876.953661463856</v>
       </c>
       <c r="R23" t="n">
         <v>2993.630245747997</v>
       </c>
       <c r="S23" t="n">
-        <v>2953.163875962794</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="T23" t="n">
-        <v>2741.392624431906</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="U23" t="n">
-        <v>2482.32193295342</v>
+        <v>2734.559554269511</v>
       </c>
       <c r="V23" t="n">
-        <v>2119.704982887247</v>
+        <v>2371.942604203337</v>
       </c>
       <c r="W23" t="n">
-        <v>2119.704982887247</v>
+        <v>1967.087149614371</v>
       </c>
       <c r="X23" t="n">
-        <v>2119.704982887247</v>
+        <v>1967.087149614371</v>
       </c>
       <c r="Y23" t="n">
-        <v>1711.4188591869</v>
+        <v>1558.801025914024</v>
       </c>
     </row>
     <row r="24">
@@ -6065,19 +6065,19 @@
         <v>59.87260491495994</v>
       </c>
       <c r="I24" t="n">
-        <v>94.08934108643594</v>
+        <v>94.08934108643605</v>
       </c>
       <c r="J24" t="n">
-        <v>187.9826804329031</v>
+        <v>187.9826804329032</v>
       </c>
       <c r="K24" t="n">
-        <v>348.4613524870733</v>
+        <v>348.4613524870734</v>
       </c>
       <c r="L24" t="n">
-        <v>564.2447313620956</v>
+        <v>564.2447313620958</v>
       </c>
       <c r="M24" t="n">
-        <v>816.053756664793</v>
+        <v>816.0537566647931</v>
       </c>
       <c r="N24" t="n">
         <v>1074.527417586113</v>
@@ -6135,10 +6135,10 @@
         <v>596.7601865251213</v>
       </c>
       <c r="F25" t="n">
-        <v>420.0531324868776</v>
+        <v>420.0531324868775</v>
       </c>
       <c r="G25" t="n">
-        <v>255.311952099396</v>
+        <v>255.3119520993958</v>
       </c>
       <c r="H25" t="n">
         <v>122.9678914787119</v>
@@ -6156,16 +6156,16 @@
         <v>1118.997192306786</v>
       </c>
       <c r="M25" t="n">
-        <v>1709.085451826228</v>
+        <v>1249.601584645315</v>
       </c>
       <c r="N25" t="n">
-        <v>2278.843166787762</v>
+        <v>1753.488026254673</v>
       </c>
       <c r="O25" t="n">
-        <v>2459.115931692548</v>
+        <v>2290.923156828216</v>
       </c>
       <c r="P25" t="n">
-        <v>2907.391881840573</v>
+        <v>2739.199106976242</v>
       </c>
       <c r="Q25" t="n">
         <v>2977.159153071229</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>887.4209411772441</v>
+        <v>1186.958002440933</v>
       </c>
       <c r="C26" t="n">
-        <v>887.4209411772441</v>
+        <v>748.8155296243563</v>
       </c>
       <c r="D26" t="n">
         <v>459.3752962354828</v>
@@ -6226,52 +6226,52 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J26" t="n">
-        <v>288.7193304095858</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K26" t="n">
-        <v>524.9909807888067</v>
+        <v>960.2456682417247</v>
       </c>
       <c r="L26" t="n">
-        <v>1265.914466611436</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M26" t="n">
-        <v>1764.89135875575</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N26" t="n">
-        <v>2096.316660732227</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O26" t="n">
-        <v>2409.27217527352</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P26" t="n">
-        <v>2676.372466452789</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q26" t="n">
-        <v>2876.953661463856</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R26" t="n">
         <v>2993.630245747997</v>
       </c>
       <c r="S26" t="n">
-        <v>2953.163875962794</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="T26" t="n">
-        <v>2741.392624431906</v>
+        <v>2781.858994217109</v>
       </c>
       <c r="U26" t="n">
-        <v>2482.32193295342</v>
+        <v>2781.858994217109</v>
       </c>
       <c r="V26" t="n">
-        <v>2119.704982887247</v>
+        <v>2419.242044150936</v>
       </c>
       <c r="W26" t="n">
-        <v>1714.84952829828</v>
+        <v>2014.386589561969</v>
       </c>
       <c r="X26" t="n">
-        <v>1295.707064877591</v>
+        <v>1595.24412614128</v>
       </c>
       <c r="Y26" t="n">
-        <v>887.4209411772441</v>
+        <v>1186.958002440933</v>
       </c>
     </row>
     <row r="27">
@@ -6314,7 +6314,7 @@
         <v>564.2447313620958</v>
       </c>
       <c r="M27" t="n">
-        <v>816.053756664793</v>
+        <v>816.0537566647931</v>
       </c>
       <c r="N27" t="n">
         <v>1074.527417586113</v>
@@ -6372,31 +6372,31 @@
         <v>596.7601865251213</v>
       </c>
       <c r="F28" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868776</v>
       </c>
       <c r="G28" t="n">
         <v>255.311952099396</v>
       </c>
       <c r="H28" t="n">
-        <v>122.9678914787117</v>
+        <v>122.9678914787119</v>
       </c>
       <c r="I28" t="n">
         <v>59.87260491495994</v>
       </c>
       <c r="J28" t="n">
-        <v>118.7782686171431</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K28" t="n">
-        <v>215.5783691847013</v>
+        <v>576.9165089205267</v>
       </c>
       <c r="L28" t="n">
-        <v>757.6590525709603</v>
+        <v>1013.311300999477</v>
       </c>
       <c r="M28" t="n">
-        <v>1347.747312090403</v>
+        <v>1603.39956051892</v>
       </c>
       <c r="N28" t="n">
-        <v>1753.488026254673</v>
+        <v>2173.157275480454</v>
       </c>
       <c r="O28" t="n">
         <v>2290.923156828216</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1347.029774383137</v>
+        <v>1250.037891243418</v>
       </c>
       <c r="C29" t="n">
-        <v>1191.236330803547</v>
+        <v>1250.037891243418</v>
       </c>
       <c r="D29" t="n">
-        <v>1191.236330803547</v>
+        <v>1250.037891243418</v>
       </c>
       <c r="E29" t="n">
-        <v>757.4615859618418</v>
+        <v>816.2631464017131</v>
       </c>
       <c r="F29" t="n">
-        <v>329.5941563710495</v>
+        <v>388.3957168109209</v>
       </c>
       <c r="G29" t="n">
-        <v>329.5941563710495</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="H29" t="n">
         <v>59.87260491495994</v>
@@ -6478,37 +6478,37 @@
         <v>1475.680045797972</v>
       </c>
       <c r="O29" t="n">
-        <v>2216.603531620601</v>
+        <v>1788.635560339265</v>
       </c>
       <c r="P29" t="n">
-        <v>2483.70382279987</v>
+        <v>2055.735851518534</v>
       </c>
       <c r="Q29" t="n">
-        <v>2876.953661463856</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R29" t="n">
         <v>2993.630245747997</v>
       </c>
       <c r="S29" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T29" t="n">
-        <v>2781.858994217109</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="U29" t="n">
-        <v>2522.788302738623</v>
+        <v>2482.32193295342</v>
       </c>
       <c r="V29" t="n">
-        <v>2160.17135267245</v>
+        <v>2482.32193295342</v>
       </c>
       <c r="W29" t="n">
-        <v>1755.315898083483</v>
+        <v>2077.466478364454</v>
       </c>
       <c r="X29" t="n">
-        <v>1755.315898083483</v>
+        <v>1658.324014943765</v>
       </c>
       <c r="Y29" t="n">
-        <v>1347.029774383137</v>
+        <v>1250.037891243418</v>
       </c>
     </row>
     <row r="30">
@@ -6542,16 +6542,16 @@
         <v>94.08934108643605</v>
       </c>
       <c r="J30" t="n">
-        <v>187.9826804329032</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K30" t="n">
-        <v>348.4613524870734</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L30" t="n">
-        <v>564.2447313620958</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M30" t="n">
-        <v>816.0537566647931</v>
+        <v>816.053756664793</v>
       </c>
       <c r="N30" t="n">
         <v>1074.527417586113</v>
@@ -6600,19 +6600,19 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C31" t="n">
-        <v>932.3961830728613</v>
+        <v>932.3961830728614</v>
       </c>
       <c r="D31" t="n">
         <v>766.5181902743841</v>
       </c>
       <c r="E31" t="n">
-        <v>596.7601865251213</v>
+        <v>596.7601865251214</v>
       </c>
       <c r="F31" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868776</v>
       </c>
       <c r="G31" t="n">
-        <v>255.3119520993958</v>
+        <v>255.311952099396</v>
       </c>
       <c r="H31" t="n">
         <v>122.9678914787119</v>
@@ -6621,19 +6621,19 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J31" t="n">
-        <v>118.7782686171431</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K31" t="n">
-        <v>490.3368237558368</v>
+        <v>576.9165089205267</v>
       </c>
       <c r="L31" t="n">
-        <v>1032.417507142096</v>
+        <v>1118.997192306786</v>
       </c>
       <c r="M31" t="n">
-        <v>1603.39956051892</v>
+        <v>1249.601584645315</v>
       </c>
       <c r="N31" t="n">
-        <v>2173.157275480454</v>
+        <v>1753.488026254673</v>
       </c>
       <c r="O31" t="n">
         <v>2290.923156828216</v>
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2464.791279766202</v>
+        <v>1590.739022124069</v>
       </c>
       <c r="C32" t="n">
-        <v>2026.648806949625</v>
+        <v>1590.739022124069</v>
       </c>
       <c r="D32" t="n">
         <v>1590.739022124069</v>
@@ -6718,34 +6718,34 @@
         <v>1788.635560339265</v>
       </c>
       <c r="P32" t="n">
-        <v>2529.559046161894</v>
+        <v>2055.735851518534</v>
       </c>
       <c r="Q32" t="n">
-        <v>2876.953661463856</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R32" t="n">
         <v>2993.630245747997</v>
       </c>
       <c r="S32" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T32" t="n">
-        <v>2993.630245747997</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="U32" t="n">
-        <v>2993.630245747997</v>
+        <v>2482.32193295342</v>
       </c>
       <c r="V32" t="n">
-        <v>2869.646734355169</v>
+        <v>2119.704982887247</v>
       </c>
       <c r="W32" t="n">
-        <v>2464.791279766202</v>
+        <v>1714.84952829828</v>
       </c>
       <c r="X32" t="n">
-        <v>2464.791279766202</v>
+        <v>1714.84952829828</v>
       </c>
       <c r="Y32" t="n">
-        <v>2464.791279766202</v>
+        <v>1590.739022124069</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1859.550434580796</v>
+        <v>555.2373584323959</v>
       </c>
       <c r="C33" t="n">
-        <v>1753.093973417439</v>
+        <v>448.7808972690382</v>
       </c>
       <c r="D33" t="n">
-        <v>1658.003684563992</v>
+        <v>353.6906084155915</v>
       </c>
       <c r="E33" t="n">
-        <v>1563.883269890945</v>
+        <v>259.5701937425452</v>
       </c>
       <c r="F33" t="n">
-        <v>1480.499431507107</v>
+        <v>176.1863553587068</v>
       </c>
       <c r="G33" t="n">
-        <v>1396.128331096764</v>
+        <v>91.81525494836369</v>
       </c>
       <c r="H33" t="n">
-        <v>1364.18568106336</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="I33" t="n">
-        <v>1398.402417234836</v>
+        <v>94.08934108643605</v>
       </c>
       <c r="J33" t="n">
-        <v>1492.295756581303</v>
+        <v>187.9826804329032</v>
       </c>
       <c r="K33" t="n">
-        <v>1652.774428635474</v>
+        <v>348.4613524870734</v>
       </c>
       <c r="L33" t="n">
-        <v>1868.557807510496</v>
+        <v>564.2447313620958</v>
       </c>
       <c r="M33" t="n">
-        <v>2120.366832813193</v>
+        <v>816.0537566647931</v>
       </c>
       <c r="N33" t="n">
-        <v>2378.840493734513</v>
+        <v>1074.527417586113</v>
       </c>
       <c r="O33" t="n">
-        <v>2615.293396549044</v>
+        <v>1310.980320400644</v>
       </c>
       <c r="P33" t="n">
-        <v>2805.06769711385</v>
+        <v>1500.75462096545</v>
       </c>
       <c r="Q33" t="n">
-        <v>2931.926791322084</v>
+        <v>1627.613715173684</v>
       </c>
       <c r="R33" t="n">
-        <v>2993.630245747997</v>
+        <v>1689.317169599597</v>
       </c>
       <c r="S33" t="n">
-        <v>2949.009215147731</v>
+        <v>1644.696138999331</v>
       </c>
       <c r="T33" t="n">
-        <v>2822.917660023384</v>
+        <v>1518.604583874984</v>
       </c>
       <c r="U33" t="n">
-        <v>2646.647822847265</v>
+        <v>1342.334746698865</v>
       </c>
       <c r="V33" t="n">
-        <v>2447.530304909264</v>
+        <v>1143.217228760864</v>
       </c>
       <c r="W33" t="n">
-        <v>2262.207550642459</v>
+        <v>957.8944744940584</v>
       </c>
       <c r="X33" t="n">
-        <v>2107.340114881339</v>
+        <v>803.0270387329383</v>
       </c>
       <c r="Y33" t="n">
-        <v>1980.854335660559</v>
+        <v>676.5412595121591</v>
       </c>
     </row>
     <row r="34">
@@ -6837,22 +6837,22 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C34" t="n">
-        <v>932.3961830728613</v>
+        <v>932.3961830728614</v>
       </c>
       <c r="D34" t="n">
         <v>766.5181902743841</v>
       </c>
       <c r="E34" t="n">
-        <v>596.7601865251213</v>
+        <v>596.7601865251214</v>
       </c>
       <c r="F34" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868776</v>
       </c>
       <c r="G34" t="n">
         <v>255.311952099396</v>
       </c>
       <c r="H34" t="n">
-        <v>122.9678914787117</v>
+        <v>122.9678914787119</v>
       </c>
       <c r="I34" t="n">
         <v>59.87260491495994</v>
@@ -6867,13 +6867,13 @@
         <v>1118.997192306786</v>
       </c>
       <c r="M34" t="n">
-        <v>1709.085451826228</v>
+        <v>1249.601584645315</v>
       </c>
       <c r="N34" t="n">
-        <v>2278.843166787762</v>
+        <v>1753.488026254673</v>
       </c>
       <c r="O34" t="n">
-        <v>2396.609048135524</v>
+        <v>2290.923156828216</v>
       </c>
       <c r="P34" t="n">
         <v>2739.199106976242</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1155.30429586259</v>
+        <v>1729.522198291206</v>
       </c>
       <c r="C35" t="n">
-        <v>717.1618230460133</v>
+        <v>1291.37972547463</v>
       </c>
       <c r="D35" t="n">
-        <v>717.1618230460133</v>
+        <v>855.469940649074</v>
       </c>
       <c r="E35" t="n">
-        <v>717.1618230460133</v>
+        <v>421.6951958073692</v>
       </c>
       <c r="F35" t="n">
-        <v>717.1618230460133</v>
+        <v>421.6951958073692</v>
       </c>
       <c r="G35" t="n">
-        <v>317.6591317254904</v>
+        <v>317.6591317254903</v>
       </c>
       <c r="H35" t="n">
-        <v>47.93758026940082</v>
+        <v>47.93758026940078</v>
       </c>
       <c r="I35" t="n">
         <v>119.1375305205814</v>
@@ -6940,49 +6940,49 @@
         <v>276.7843057640267</v>
       </c>
       <c r="K35" t="n">
-        <v>513.0559561432476</v>
+        <v>513.0559561432475</v>
       </c>
       <c r="L35" t="n">
-        <v>806.1718310071483</v>
+        <v>806.1718310071482</v>
       </c>
       <c r="M35" t="n">
         <v>1132.319719175935</v>
       </c>
       <c r="N35" t="n">
-        <v>1499.565428454271</v>
+        <v>1463.745021152413</v>
       </c>
       <c r="O35" t="n">
-        <v>1812.520942995563</v>
+        <v>1812.520942995562</v>
       </c>
       <c r="P35" t="n">
-        <v>2079.621234174832</v>
+        <v>2079.621234174831</v>
       </c>
       <c r="Q35" t="n">
-        <v>2280.2024291859</v>
+        <v>2280.202429185898</v>
       </c>
       <c r="R35" t="n">
-        <v>2396.879013470041</v>
+        <v>2396.879013470039</v>
       </c>
       <c r="S35" t="n">
-        <v>2396.879013470041</v>
+        <v>2396.879013470039</v>
       </c>
       <c r="T35" t="n">
-        <v>2185.107761939153</v>
+        <v>2396.879013470039</v>
       </c>
       <c r="U35" t="n">
-        <v>1926.037070460667</v>
+        <v>2137.808321991553</v>
       </c>
       <c r="V35" t="n">
-        <v>1563.420120394494</v>
+        <v>2137.808321991553</v>
       </c>
       <c r="W35" t="n">
-        <v>1158.564665805527</v>
+        <v>2137.808321991553</v>
       </c>
       <c r="X35" t="n">
-        <v>1158.564665805527</v>
+        <v>2137.808321991553</v>
       </c>
       <c r="Y35" t="n">
-        <v>1158.564665805527</v>
+        <v>1729.522198291206</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1262.799202302839</v>
+        <v>543.3023337868368</v>
       </c>
       <c r="C36" t="n">
-        <v>1156.342741139482</v>
+        <v>436.8458726234791</v>
       </c>
       <c r="D36" t="n">
-        <v>1061.252452286035</v>
+        <v>341.7555837700324</v>
       </c>
       <c r="E36" t="n">
-        <v>967.1320376129886</v>
+        <v>247.6351690969861</v>
       </c>
       <c r="F36" t="n">
-        <v>883.7481992291503</v>
+        <v>164.2513307131477</v>
       </c>
       <c r="G36" t="n">
-        <v>799.3770988188071</v>
+        <v>79.88023030280453</v>
       </c>
       <c r="H36" t="n">
-        <v>767.4344487854033</v>
+        <v>47.93758026940078</v>
       </c>
       <c r="I36" t="n">
-        <v>801.6511849568794</v>
+        <v>82.1543164408769</v>
       </c>
       <c r="J36" t="n">
-        <v>895.5445243033465</v>
+        <v>176.047655787344</v>
       </c>
       <c r="K36" t="n">
-        <v>1056.023196357517</v>
+        <v>336.5263278415143</v>
       </c>
       <c r="L36" t="n">
-        <v>1271.806575232539</v>
+        <v>552.3097067165365</v>
       </c>
       <c r="M36" t="n">
-        <v>1523.615600535236</v>
+        <v>804.118732019234</v>
       </c>
       <c r="N36" t="n">
-        <v>1782.089261456556</v>
+        <v>1062.592392940554</v>
       </c>
       <c r="O36" t="n">
-        <v>2018.542164271087</v>
+        <v>1299.045295755085</v>
       </c>
       <c r="P36" t="n">
-        <v>2208.316464835893</v>
+        <v>1488.819596319891</v>
       </c>
       <c r="Q36" t="n">
-        <v>2335.175559044128</v>
+        <v>1615.678690528125</v>
       </c>
       <c r="R36" t="n">
-        <v>2396.879013470041</v>
+        <v>1677.382144954038</v>
       </c>
       <c r="S36" t="n">
-        <v>2352.257982869775</v>
+        <v>1632.761114353772</v>
       </c>
       <c r="T36" t="n">
-        <v>2226.166427745427</v>
+        <v>1506.669559229425</v>
       </c>
       <c r="U36" t="n">
-        <v>2049.896590569309</v>
+        <v>1330.399722053306</v>
       </c>
       <c r="V36" t="n">
-        <v>1850.779072631308</v>
+        <v>1131.282204115305</v>
       </c>
       <c r="W36" t="n">
-        <v>1665.456318364502</v>
+        <v>945.9594498484992</v>
       </c>
       <c r="X36" t="n">
-        <v>1510.588882603382</v>
+        <v>791.0920140873792</v>
       </c>
       <c r="Y36" t="n">
-        <v>1384.103103382603</v>
+        <v>664.6062348665999</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1093.022869944077</v>
+        <v>551.1184649721347</v>
       </c>
       <c r="C37" t="n">
-        <v>920.4611584273024</v>
+        <v>378.5567534553597</v>
       </c>
       <c r="D37" t="n">
-        <v>754.5831656288251</v>
+        <v>212.6787606568824</v>
       </c>
       <c r="E37" t="n">
-        <v>584.8251618795623</v>
+        <v>212.6787606568824</v>
       </c>
       <c r="F37" t="n">
-        <v>408.1181078413185</v>
+        <v>212.6787606568824</v>
       </c>
       <c r="G37" t="n">
-        <v>243.3769274538369</v>
+        <v>47.93758026940078</v>
       </c>
       <c r="H37" t="n">
-        <v>111.0328668331528</v>
+        <v>47.93758026940078</v>
       </c>
       <c r="I37" t="n">
-        <v>47.93758026940082</v>
+        <v>47.93758026940078</v>
       </c>
       <c r="J37" t="n">
         <v>106.8432439715839</v>
       </c>
       <c r="K37" t="n">
-        <v>203.6433445391421</v>
+        <v>478.4017991102777</v>
       </c>
       <c r="L37" t="n">
-        <v>327.5141461574401</v>
+        <v>602.2726007285756</v>
       </c>
       <c r="M37" t="n">
-        <v>586.9790790151831</v>
+        <v>1192.360860248018</v>
       </c>
       <c r="N37" t="n">
-        <v>1156.736793976717</v>
+        <v>1762.118575209552</v>
       </c>
       <c r="O37" t="n">
-        <v>1694.17192455026</v>
+        <v>2209.871593384932</v>
       </c>
       <c r="P37" t="n">
-        <v>2142.447874698285</v>
+        <v>2310.640649562616</v>
       </c>
       <c r="Q37" t="n">
-        <v>2380.407920793273</v>
+        <v>2380.407920793271</v>
       </c>
       <c r="R37" t="n">
-        <v>2396.879013470041</v>
+        <v>2396.879013470039</v>
       </c>
       <c r="S37" t="n">
-        <v>2252.452474974275</v>
+        <v>2252.452474974273</v>
       </c>
       <c r="T37" t="n">
-        <v>2252.452474974275</v>
+        <v>2010.20525087768</v>
       </c>
       <c r="U37" t="n">
-        <v>2252.452474974275</v>
+        <v>1731.818618926423</v>
       </c>
       <c r="V37" t="n">
-        <v>1965.496966844705</v>
+        <v>1444.863110796853</v>
       </c>
       <c r="W37" t="n">
-        <v>1693.470562430997</v>
+        <v>1172.836706383145</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.078807764409</v>
+        <v>970.3567543770137</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.841488663065</v>
+        <v>742.9370836911219</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1744.992230847976</v>
+        <v>1629.406608814899</v>
       </c>
       <c r="C38" t="n">
-        <v>1744.992230847976</v>
+        <v>1191.264135998322</v>
       </c>
       <c r="D38" t="n">
-        <v>1309.082446022421</v>
+        <v>755.3543511727664</v>
       </c>
       <c r="E38" t="n">
-        <v>875.3077011807159</v>
+        <v>321.5796063310616</v>
       </c>
       <c r="F38" t="n">
-        <v>447.4402715899237</v>
+        <v>47.93758026940078</v>
       </c>
       <c r="G38" t="n">
-        <v>47.93758026940082</v>
+        <v>47.93758026940078</v>
       </c>
       <c r="H38" t="n">
-        <v>47.93758026940082</v>
+        <v>47.93758026940078</v>
       </c>
       <c r="I38" t="n">
         <v>119.1375305205814</v>
       </c>
       <c r="J38" t="n">
-        <v>276.7843057640267</v>
+        <v>312.6047130658829</v>
       </c>
       <c r="K38" t="n">
-        <v>513.0559561432476</v>
+        <v>548.8763634451038</v>
       </c>
       <c r="L38" t="n">
-        <v>806.1718310071483</v>
+        <v>841.9922383090045</v>
       </c>
       <c r="M38" t="n">
-        <v>1132.319719175935</v>
+        <v>1168.140126477792</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.745021152413</v>
+        <v>1499.565428454269</v>
       </c>
       <c r="O38" t="n">
-        <v>1776.700535693706</v>
+        <v>1812.520942995562</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.800826872975</v>
+        <v>2079.621234174831</v>
       </c>
       <c r="Q38" t="n">
-        <v>2244.382021884042</v>
+        <v>2280.202429185898</v>
       </c>
       <c r="R38" t="n">
-        <v>2396.879013470041</v>
+        <v>2396.879013470039</v>
       </c>
       <c r="S38" t="n">
-        <v>2356.412643684838</v>
+        <v>2396.879013470039</v>
       </c>
       <c r="T38" t="n">
-        <v>2356.412643684838</v>
+        <v>2396.879013470039</v>
       </c>
       <c r="U38" t="n">
-        <v>2097.341952206352</v>
+        <v>2396.879013470039</v>
       </c>
       <c r="V38" t="n">
-        <v>2097.341952206352</v>
+        <v>2034.262063403865</v>
       </c>
       <c r="W38" t="n">
-        <v>2097.341952206352</v>
+        <v>1629.406608814899</v>
       </c>
       <c r="X38" t="n">
-        <v>1744.992230847976</v>
+        <v>1629.406608814899</v>
       </c>
       <c r="Y38" t="n">
-        <v>1744.992230847976</v>
+        <v>1629.406608814899</v>
       </c>
     </row>
     <row r="39">
@@ -7244,25 +7244,25 @@
         <v>164.2513307131477</v>
       </c>
       <c r="G39" t="n">
-        <v>79.88023030280456</v>
+        <v>79.88023030280453</v>
       </c>
       <c r="H39" t="n">
-        <v>47.93758026940082</v>
+        <v>47.93758026940078</v>
       </c>
       <c r="I39" t="n">
-        <v>82.15431644087694</v>
+        <v>82.1543164408769</v>
       </c>
       <c r="J39" t="n">
-        <v>176.0476557873441</v>
+        <v>176.047655787344</v>
       </c>
       <c r="K39" t="n">
-        <v>336.5263278415144</v>
+        <v>336.5263278415143</v>
       </c>
       <c r="L39" t="n">
-        <v>552.3097067165367</v>
+        <v>552.3097067165365</v>
       </c>
       <c r="M39" t="n">
-        <v>804.1187320192341</v>
+        <v>804.118732019234</v>
       </c>
       <c r="N39" t="n">
         <v>1062.592392940554</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1093.022869944077</v>
+        <v>754.5831656288249</v>
       </c>
       <c r="C40" t="n">
-        <v>920.4611584273024</v>
+        <v>754.5831656288249</v>
       </c>
       <c r="D40" t="n">
-        <v>754.5831656288251</v>
+        <v>754.5831656288249</v>
       </c>
       <c r="E40" t="n">
-        <v>584.8251618795623</v>
+        <v>584.8251618795622</v>
       </c>
       <c r="F40" t="n">
-        <v>408.1181078413185</v>
+        <v>408.1181078413184</v>
       </c>
       <c r="G40" t="n">
-        <v>243.3769274538369</v>
+        <v>243.3769274538368</v>
       </c>
       <c r="H40" t="n">
-        <v>111.0328668331528</v>
+        <v>111.0328668331527</v>
       </c>
       <c r="I40" t="n">
-        <v>47.93758026940082</v>
+        <v>47.93758026940078</v>
       </c>
       <c r="J40" t="n">
         <v>106.8432439715839</v>
       </c>
       <c r="K40" t="n">
-        <v>203.6433445391421</v>
+        <v>478.4017991102777</v>
       </c>
       <c r="L40" t="n">
-        <v>745.7240279254011</v>
+        <v>1020.482482496537</v>
       </c>
       <c r="M40" t="n">
-        <v>1335.812287444844</v>
+        <v>1151.086874835066</v>
       </c>
       <c r="N40" t="n">
-        <v>1672.436462811391</v>
+        <v>1278.585786638956</v>
       </c>
       <c r="O40" t="n">
-        <v>2209.871593384934</v>
+        <v>1694.171924550259</v>
       </c>
       <c r="P40" t="n">
-        <v>2310.640649562617</v>
+        <v>2142.447874698284</v>
       </c>
       <c r="Q40" t="n">
-        <v>2380.407920793273</v>
+        <v>2380.407920793271</v>
       </c>
       <c r="R40" t="n">
-        <v>2396.879013470041</v>
+        <v>2396.879013470039</v>
       </c>
       <c r="S40" t="n">
-        <v>2396.879013470041</v>
+        <v>2252.452474974273</v>
       </c>
       <c r="T40" t="n">
-        <v>2396.879013470041</v>
+        <v>2064.763135475839</v>
       </c>
       <c r="U40" t="n">
-        <v>2316.634826558822</v>
+        <v>1786.376503524582</v>
       </c>
       <c r="V40" t="n">
-        <v>2029.679318429252</v>
+        <v>1499.420995395013</v>
       </c>
       <c r="W40" t="n">
-        <v>1757.652914015544</v>
+        <v>1227.394590981304</v>
       </c>
       <c r="X40" t="n">
-        <v>1512.261159348956</v>
+        <v>982.0028363147167</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.841488663065</v>
+        <v>754.5831656288249</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>894.8281683109057</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="C41" t="n">
-        <v>894.8281683109057</v>
+        <v>1614.480062263097</v>
       </c>
       <c r="D41" t="n">
-        <v>880.4839877111824</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="E41" t="n">
-        <v>446.7092428694776</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F41" t="n">
-        <v>446.7092428694776</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N41" t="n">
         <v>1463.013992431967</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U41" t="n">
-        <v>2148.556325916849</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V41" t="n">
-        <v>2148.556325916849</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W41" t="n">
-        <v>2148.556325916849</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="X41" t="n">
-        <v>1729.41386249616</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="Y41" t="n">
-        <v>1321.127738795813</v>
+        <v>1698.173566117875</v>
       </c>
     </row>
     <row r="42">
@@ -7472,13 +7472,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E42" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G42" t="n">
         <v>79.1492015823585</v>
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.291841223631</v>
+        <v>807.9003835041292</v>
       </c>
       <c r="C43" t="n">
-        <v>919.7301297068562</v>
+        <v>635.3386719873541</v>
       </c>
       <c r="D43" t="n">
-        <v>753.852136908379</v>
+        <v>635.3386719873541</v>
       </c>
       <c r="E43" t="n">
-        <v>584.0941331591162</v>
+        <v>465.5806682380914</v>
       </c>
       <c r="F43" t="n">
-        <v>407.3870791208724</v>
+        <v>288.8736141998476</v>
       </c>
       <c r="G43" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H43" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I43" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>359.5348022487602</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>901.6154856350191</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M43" t="n">
-        <v>1485.796561053334</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N43" t="n">
-        <v>2055.554276014868</v>
+        <v>1456.672986427159</v>
       </c>
       <c r="O43" t="n">
-        <v>2173.32015736263</v>
+        <v>1994.108117000703</v>
       </c>
       <c r="P43" t="n">
         <v>2274.089213540314</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T43" t="n">
-        <v>2215.901038951972</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>1937.514407000715</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1650.558898871145</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W43" t="n">
-        <v>1650.558898871145</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X43" t="n">
-        <v>1511.53013062851</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y43" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1782.900983623584</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C44" t="n">
-        <v>1344.758510807007</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D44" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E44" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
         <v>47.20655154895474</v>
@@ -7681,19 +7681,19 @@
         <v>2319.861207662534</v>
       </c>
       <c r="U44" t="n">
-        <v>2060.790516184048</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V44" t="n">
-        <v>2060.790516184048</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W44" t="n">
-        <v>2060.790516184048</v>
+        <v>1915.005753073567</v>
       </c>
       <c r="X44" t="n">
-        <v>1782.900983623584</v>
+        <v>1495.863289652878</v>
       </c>
       <c r="Y44" t="n">
-        <v>1782.900983623584</v>
+        <v>1087.577165952531</v>
       </c>
     </row>
     <row r="45">
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.291841223631</v>
+        <v>863.3185618614019</v>
       </c>
       <c r="C46" t="n">
-        <v>919.7301297068562</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="D46" t="n">
-        <v>753.852136908379</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E46" t="n">
-        <v>584.0941331591162</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F46" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G46" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I46" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L46" t="n">
-        <v>1106.33113894078</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M46" t="n">
-        <v>1236.93553127931</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N46" t="n">
-        <v>1364.434443083199</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527957</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675982</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2286.124617521261</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T46" t="n">
-        <v>2043.877393424667</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>2043.877393424667</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1756.921885295098</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W46" t="n">
-        <v>1756.921885295098</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X46" t="n">
-        <v>1511.53013062851</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="Y46" t="n">
-        <v>1284.110459942618</v>
+        <v>908.8655996749517</v>
       </c>
     </row>
   </sheetData>
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7996,13 +7996,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="Q2" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R2" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L3" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="O4" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="K4" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>39.64570999510201</v>
       </c>
       <c r="P4" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P5" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K5" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>39.64570999510201</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R5" t="n">
         <v>41.31500304752734</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>13.31876740878122</v>
+      </c>
+      <c r="P6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="P6" t="n">
-        <v>41.31500304752736</v>
-      </c>
       <c r="Q6" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R6" t="n">
         <v>41.31500304752734</v>
@@ -8376,25 +8376,25 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M7" t="n">
-        <v>39.64570999510202</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8461,16 +8461,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="P8" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>41.31500304752734</v>
@@ -8540,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="N9" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="P9" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,22 +8613,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="Q10" t="n">
         <v>41.31500304752734</v>
@@ -8847,13 +8847,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>263.1722038422874</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -8862,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>177.1920849464598</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -9090,22 +9090,22 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>156.730423204287</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371569</v>
+        <v>458.1582657371572</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>59.72999935692087</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>36.18222959783589</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>36.18222959783498</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9327,19 +9327,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>300.0538539227719</v>
       </c>
       <c r="N19" t="n">
-        <v>211.2376399622801</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>36.18222959783452</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>36.18222959783589</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9564,22 +9564,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>299.3544334401226</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>6.595115400971054</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>418.9652501553958</v>
       </c>
       <c r="N23" t="n">
-        <v>37.07772982561255</v>
+        <v>207.940421495367</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9804,19 +9804,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>380.1894240459278</v>
       </c>
       <c r="O25" t="n">
-        <v>63.13826621921589</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>452.3309201603319</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>174.574751490431</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>16.39178053361684</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10032,22 +10032,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>315.680798445104</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
-        <v>281.0523256165461</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>432.2908800821581</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>194.6147915686047</v>
+        <v>456.0429799810081</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -10278,13 +10278,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>444.8259202407019</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>380.1894240459278</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>478.6092875185454</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>148.2963841322171</v>
+        <v>456.0429799810081</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10515,16 +10515,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>380.1894240459278</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>244.2636390535695</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821538</v>
@@ -10597,10 +10597,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>36.18222959783634</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>36.18222959783452</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>130.1621621406198</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>333.3203402299175</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>36.18222959783458</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>36.18222959783634</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10983,25 +10983,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>211.2376399622806</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>300.8285419833751</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>70.75030430845885</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
@@ -11229,13 +11229,13 @@
         <v>458.1582657371571</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>181.0222629918462</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -11469,13 +11469,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>177.1920849464602</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>10.62967161639972</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>142.5494279759792</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>75.24242682225088</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>102.1862712954197</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>133.4142235926367</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -23503,13 +23503,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>345.0595494503578</v>
+        <v>59.97313126835252</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -23548,16 +23548,16 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>119.9786344363076</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>139.677501606419</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23734,19 +23734,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>317.1966894335577</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>107.28015667162</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
@@ -23943,7 +23943,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>79.40705014906823</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>17.35534475364113</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23977,13 +23977,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>331.340828176962</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>318.0877084468023</v>
       </c>
     </row>
     <row r="21">
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>79.40705014906817</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>96.20545658052411</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,10 +24208,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>47.26367345467997</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>67.66163881792721</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -24445,10 +24445,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>7.785498484956179</v>
+        <v>145.0048559223152</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>279.525538944617</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>70.26978363031628</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24919,10 +24919,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>236.2471042866116</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>281.3338613508745</v>
       </c>
     </row>
     <row r="33">
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>418.8088085365512</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>292.5119609662575</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>42.4826846338517</v>
       </c>
       <c r="Y37" t="n">
-        <v>63.54052806870143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>152.6831494938401</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>66.12481464169065</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>54.01230575217775</v>
       </c>
       <c r="U40" t="n">
-        <v>196.1610205896376</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>350.904479272181</v>
       </c>
       <c r="D41" t="n">
-        <v>417.3499481835739</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>54.86399657370012</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>105.2993565597131</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>54.60166686936429</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>139.8404015516228</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>144.808865096383</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,22 +26073,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>69.52134278359652</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>332059.3884177819</v>
+        <v>332059.3884177816</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>332059.3884177819</v>
+        <v>332059.3884177817</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>413460.1099462303</v>
+        <v>413460.1099462302</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>413460.1099462303</v>
+        <v>413460.1099462302</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>413460.1099462302</v>
+        <v>413460.1099462303</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>332059.3884177819</v>
+        <v>332059.3884177816</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>332059.3884177819</v>
+        <v>332059.3884177816</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>402110.4899178063</v>
+        <v>402110.4899178062</v>
       </c>
       <c r="C2" t="n">
-        <v>402110.4899178063</v>
+        <v>402110.4899178062</v>
       </c>
       <c r="D2" t="n">
-        <v>402110.4899178063</v>
+        <v>402110.4899178062</v>
       </c>
       <c r="E2" t="n">
-        <v>235946.3569512258</v>
+        <v>235946.3569512259</v>
       </c>
       <c r="F2" t="n">
-        <v>235946.3569512259</v>
+        <v>235946.356951226</v>
       </c>
       <c r="G2" t="n">
-        <v>238701.7701421067</v>
+        <v>238701.7701421066</v>
       </c>
       <c r="H2" t="n">
         <v>238701.7701421067</v>
       </c>
       <c r="I2" t="n">
+        <v>283687.5872818136</v>
+      </c>
+      <c r="J2" t="n">
         <v>283687.5872818137</v>
       </c>
-      <c r="J2" t="n">
-        <v>283687.5872818136</v>
-      </c>
       <c r="K2" t="n">
-        <v>283687.5872818136</v>
+        <v>283687.5872818137</v>
       </c>
       <c r="L2" t="n">
-        <v>283687.5872818136</v>
+        <v>283687.5872818137</v>
       </c>
       <c r="M2" t="n">
-        <v>238701.7701421068</v>
+        <v>238701.7701421066</v>
       </c>
       <c r="N2" t="n">
-        <v>238701.7701421067</v>
+        <v>238701.7701421066</v>
       </c>
       <c r="O2" t="n">
-        <v>235946.356951226</v>
+        <v>235946.3569512259</v>
       </c>
       <c r="P2" t="n">
-        <v>235946.356951226</v>
+        <v>235946.3569512259</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2504.550085543276</v>
+        <v>2504.550085543156</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39672.17110964663</v>
+        <v>39672.17110964669</v>
       </c>
       <c r="J3" t="n">
         <v>10809.82265736726</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99576.70586096644</v>
+        <v>99576.70586096635</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>301049.4928748382</v>
+        <v>301049.4928748383</v>
       </c>
       <c r="C4" t="n">
         <v>301049.4928748383</v>
       </c>
       <c r="D4" t="n">
-        <v>301049.4928748382</v>
+        <v>301049.4928748383</v>
       </c>
       <c r="E4" t="n">
         <v>12946.1632919156</v>
@@ -26432,13 +26432,13 @@
         <v>12946.1632919156</v>
       </c>
       <c r="G4" t="n">
-        <v>14263.75365561263</v>
+        <v>14263.75365561259</v>
       </c>
       <c r="H4" t="n">
-        <v>14263.75365561263</v>
+        <v>14263.75365561259</v>
       </c>
       <c r="I4" t="n">
-        <v>35775.18408734677</v>
+        <v>35775.18408734679</v>
       </c>
       <c r="J4" t="n">
         <v>35775.18408734679</v>
@@ -26450,13 +26450,13 @@
         <v>35775.18408734677</v>
       </c>
       <c r="M4" t="n">
-        <v>14263.75365561265</v>
+        <v>14263.75365561258</v>
       </c>
       <c r="N4" t="n">
-        <v>14263.75365561264</v>
+        <v>14263.75365561258</v>
       </c>
       <c r="O4" t="n">
-        <v>12946.16329191559</v>
+        <v>12946.1632919156</v>
       </c>
       <c r="P4" t="n">
         <v>12946.1632919156</v>
@@ -26481,13 +26481,13 @@
         <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="G5" t="n">
-        <v>46606.66303717683</v>
+        <v>46606.66303717682</v>
       </c>
       <c r="H5" t="n">
-        <v>46606.66303717683</v>
+        <v>46606.66303717682</v>
       </c>
       <c r="I5" t="n">
         <v>55677.28176780177</v>
@@ -26502,10 +26502,10 @@
         <v>55677.28176780177</v>
       </c>
       <c r="M5" t="n">
-        <v>46606.66303717684</v>
+        <v>46606.66303717681</v>
       </c>
       <c r="N5" t="n">
-        <v>46606.66303717684</v>
+        <v>46606.66303717681</v>
       </c>
       <c r="O5" t="n">
         <v>46051.08120963782</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51075.83709138191</v>
+        <v>51075.83709138179</v>
       </c>
       <c r="C6" t="n">
-        <v>64921.44485767833</v>
+        <v>64921.44485767827</v>
       </c>
       <c r="D6" t="n">
-        <v>64921.44485767845</v>
+        <v>64921.44485767822</v>
       </c>
       <c r="E6" t="n">
-        <v>-361850.3375610787</v>
+        <v>-362404.2180043006</v>
       </c>
       <c r="F6" t="n">
-        <v>176949.1124496725</v>
+        <v>176395.2320064506</v>
       </c>
       <c r="G6" t="n">
-        <v>175326.803363774</v>
+        <v>174782.1076311884</v>
       </c>
       <c r="H6" t="n">
-        <v>177831.3534493173</v>
+        <v>177286.6577167316</v>
       </c>
       <c r="I6" t="n">
-        <v>152562.9503170185</v>
+        <v>152168.2073082317</v>
       </c>
       <c r="J6" t="n">
-        <v>181425.2987692978</v>
+        <v>181030.5557605112</v>
       </c>
       <c r="K6" t="n">
-        <v>192235.121426665</v>
+        <v>191840.3784178785</v>
       </c>
       <c r="L6" t="n">
-        <v>192235.121426665</v>
+        <v>191840.3784178785</v>
       </c>
       <c r="M6" t="n">
-        <v>78254.64758835085</v>
+        <v>77709.95185576516</v>
       </c>
       <c r="N6" t="n">
-        <v>177831.3534493173</v>
+        <v>177286.6577167315</v>
       </c>
       <c r="O6" t="n">
-        <v>176949.1124496726</v>
+        <v>176395.2320064505</v>
       </c>
       <c r="P6" t="n">
-        <v>176949.1124496726</v>
+        <v>176395.2320064505</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
         <v>466.7019280932212</v>
@@ -26801,13 +26801,13 @@
         <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="G4" t="n">
-        <v>599.2197533675101</v>
+        <v>599.2197533675098</v>
       </c>
       <c r="H4" t="n">
-        <v>599.2197533675101</v>
+        <v>599.2197533675098</v>
       </c>
       <c r="I4" t="n">
         <v>748.4075614369992</v>
@@ -26822,10 +26822,10 @@
         <v>748.4075614369992</v>
       </c>
       <c r="M4" t="n">
-        <v>599.2197533675102</v>
+        <v>599.2197533675097</v>
       </c>
       <c r="N4" t="n">
-        <v>599.2197533675102</v>
+        <v>599.2197533675097</v>
       </c>
       <c r="O4" t="n">
         <v>590.0818943619342</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>9.137859005575919</v>
+        <v>9.137859005575478</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>149.1878080694892</v>
+        <v>149.1878080694894</v>
       </c>
       <c r="J4" t="n">
         <v>41.3150030475274</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>399.5790832449176</v>
+        <v>399.5790832449172</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>9.137859005575919</v>
+        <v>9.137859005575478</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27460,7 +27460,7 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C3" t="n">
-        <v>64.07689350419679</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
         <v>94.13938596491228</v>
@@ -27469,10 +27469,10 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F3" t="n">
-        <v>82.55</v>
+        <v>46.15974531573791</v>
       </c>
       <c r="G3" t="n">
-        <v>84.53123883647795</v>
+        <v>43.21623578895061</v>
       </c>
       <c r="H3" t="n">
         <v>0.003292614422299778</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>26.43062849183867</v>
+        <v>21.5058801285734</v>
       </c>
       <c r="T3" t="n">
         <v>128.8768572327044</v>
@@ -27526,7 +27526,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
-        <v>83.90591838104407</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="4">
@@ -27542,13 +27542,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>133.624980450334</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -27593,19 +27593,19 @@
         <v>202.1056489098019</v>
       </c>
       <c r="U4" t="n">
-        <v>234.3336676918984</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>227.991137322044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>206.5475824356596</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>209.9588623764525</v>
       </c>
     </row>
     <row r="5">
@@ -27700,13 +27700,13 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
-        <v>52.82438291738493</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E6" t="n">
-        <v>51.86420747878847</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F6" t="n">
-        <v>82.55</v>
+        <v>41.23499695247265</v>
       </c>
       <c r="G6" t="n">
         <v>43.21623578895061</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>62.82088317610075</v>
+        <v>21.5058801285734</v>
       </c>
       <c r="T6" t="n">
         <v>128.8768572327044</v>
@@ -27776,7 +27776,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>155.6494827990271</v>
       </c>
       <c r="D7" t="n">
         <v>122.9042098229652</v>
@@ -27791,7 +27791,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>97.18814951900188</v>
       </c>
       <c r="I7" t="n">
         <v>46.45834668554406</v>
@@ -27824,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>116.333951967456</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>228.234040354749</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>120.0908620689655</v>
+        <v>78.77585902143818</v>
       </c>
       <c r="C9" t="n">
-        <v>64.07689350419679</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>52.82438291738493</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
         <v>93.17921052631581</v>
@@ -27982,13 +27982,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>21.5058801285734</v>
+        <v>26.43062849183867</v>
       </c>
       <c r="T9" t="n">
-        <v>128.8768572327044</v>
+        <v>87.56185418517705</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5731815300314</v>
+        <v>133.258178482504</v>
       </c>
       <c r="V9" t="n">
         <v>197.1263427586206</v>
@@ -28000,7 +28000,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
-        <v>88.83066674430933</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="10">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.5854294842699</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -28031,7 +28031,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>46.45834668554406</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>116.333951967456</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>234.3336676918984</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>268.8993414456936</v>
       </c>
       <c r="W10" t="n">
-        <v>254.1195287669911</v>
+        <v>227.991137322044</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>201.6228340723943</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -32566,10 +32566,10 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.691212691723</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
@@ -32785,7 +32785,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916768</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -32809,7 +32809,7 @@
         <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R24" t="n">
         <v>62.32672164233624</v>
@@ -33034,13 +33034,13 @@
         <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917233</v>
@@ -33262,7 +33262,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562328</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -33997,7 +33997,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233624</v>
+        <v>62.326721642336</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
@@ -34707,7 +34707,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34716,13 +34716,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="Q2" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="R2" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,19 +34774,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L3" t="n">
-        <v>39.64570999510202</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="O4" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="K4" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>39.64570999510201</v>
       </c>
       <c r="P4" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P5" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K5" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>39.64570999510201</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R5" t="n">
         <v>41.31500304752734</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
+        <v>13.31876740878122</v>
+      </c>
+      <c r="P6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="P6" t="n">
-        <v>41.31500304752736</v>
-      </c>
       <c r="Q6" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R6" t="n">
         <v>41.31500304752734</v>
@@ -35096,25 +35096,25 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M7" t="n">
-        <v>39.64570999510202</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35181,16 +35181,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="P8" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>41.31500304752734</v>
@@ -35260,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="N9" t="n">
-        <v>41.31500304752736</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="P9" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>41.31500304752734</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="Q10" t="n">
         <v>41.31500304752734</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35427,7 +35427,7 @@
         <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108055</v>
@@ -35509,10 +35509,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>547.556245844706</v>
+        <v>388.294225678952</v>
       </c>
       <c r="M13" t="n">
         <v>131.9236286247772</v>
@@ -35582,7 +35582,7 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>296.1475206512696</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
@@ -35646,7 +35646,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
@@ -35655,7 +35655,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35664,7 +35664,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K16" t="n">
         <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366646</v>
+        <v>281.8524450409516</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N16" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O16" t="n">
-        <v>178.6854350617307</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35886,7 +35886,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>274.8404623041197</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
         <v>296.0766412766674</v>
@@ -35907,7 +35907,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>154.037365238381</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916798</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562325</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
@@ -35986,7 +35986,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
         <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>596.0487469893359</v>
+        <v>431.9774825475491</v>
       </c>
       <c r="N19" t="n">
-        <v>340.0244195621685</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O19" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
         <v>70.4719911420766</v>
@@ -36120,7 +36120,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>195.4213965104055</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
@@ -36141,10 +36141,10 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879471</v>
+        <v>202.6072676879476</v>
       </c>
       <c r="R20" t="n">
-        <v>154.0373652383819</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916776</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.691212691723</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>547.5562458447062</v>
+        <v>424.4764552767872</v>
       </c>
       <c r="M22" t="n">
-        <v>596.048746989336</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>125.5505511057809</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36369,7 +36369,7 @@
         <v>748.4075614369991</v>
       </c>
       <c r="N23" t="n">
-        <v>371.8507621250847</v>
+        <v>542.7134537948391</v>
       </c>
       <c r="O23" t="n">
         <v>316.1166813548411</v>
@@ -36381,7 +36381,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>288.7178273103004</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916768</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36448,7 +36448,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36457,7 +36457,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R24" t="n">
         <v>62.32672164233622</v>
@@ -36524,19 +36524,19 @@
         <v>547.5562458447059</v>
       </c>
       <c r="M25" t="n">
-        <v>596.048746989336</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>575.5128433954892</v>
+        <v>508.9762036458162</v>
       </c>
       <c r="O25" t="n">
-        <v>182.0937019240259</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
         <v>452.8039900485105</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36594,31 +36594,31 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>748.4075614369992</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>504.0170627720343</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879471</v>
+        <v>218.999048221564</v>
       </c>
       <c r="R26" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917232</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>547.556245844706</v>
+        <v>440.8028202817685</v>
       </c>
       <c r="M28" t="n">
         <v>596.0487469893359</v>
       </c>
       <c r="N28" t="n">
-        <v>409.8391052164345</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561043</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P28" t="n">
         <v>452.8039900485105</v>
@@ -36846,16 +36846,16 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>748.4075614369992</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q29" t="n">
-        <v>397.2220592565518</v>
+        <v>658.6502476689552</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562328</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -36922,13 +36922,13 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P30" t="n">
-        <v>191.691212691723</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K31" t="n">
         <v>375.3116718572664</v>
@@ -36998,13 +36998,13 @@
         <v>547.5562458447059</v>
       </c>
       <c r="M31" t="n">
-        <v>576.749548865479</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>575.5128433954892</v>
+        <v>508.9762036458162</v>
       </c>
       <c r="O31" t="n">
-        <v>118.95543570481</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
         <v>452.8039900485105</v>
@@ -37086,13 +37086,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>748.4075614369992</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.9036518201642</v>
+        <v>658.6502476689552</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916764</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233645</v>
+        <v>62.326721642336</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K34" t="n">
         <v>375.3116718572664</v>
@@ -37235,16 +37235,16 @@
         <v>547.5562458447059</v>
       </c>
       <c r="M34" t="n">
-        <v>596.048746989336</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>575.5128433954892</v>
+        <v>508.9762036458162</v>
       </c>
       <c r="O34" t="n">
-        <v>118.95543570481</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>346.050564485573</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q34" t="n">
         <v>240.36368292423</v>
@@ -37308,19 +37308,19 @@
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
-        <v>370.9552618973084</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>352.2989109526757</v>
       </c>
       <c r="P35" t="n">
         <v>269.7982739184536</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916776</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742738</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233645</v>
+        <v>62.326721642336</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M37" t="n">
-        <v>262.085790765397</v>
+        <v>596.048746989336</v>
       </c>
       <c r="N37" t="n">
-        <v>575.5128433954891</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561043</v>
+        <v>452.2757759347273</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37542,7 +37542,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>195.4213965104056</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
@@ -37566,7 +37566,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>154.0373652383823</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -37633,7 +37633,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742734</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M40" t="n">
-        <v>596.0487469893359</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>340.024419562169</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561043</v>
+        <v>419.7839776881849</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37797,7 +37797,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37861,10 +37861,10 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>168.5281836696288</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M43" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N43" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>118.95543570481</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>282.8091884238495</v>
       </c>
       <c r="Q43" t="n">
         <v>70.4719911420766</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
@@ -38189,13 +38189,13 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>296.14752065127</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.36368292423</v>
+        <v>81.10166275847632</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
